--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_3898.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_3898.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3898</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Yasir Shah</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Leg Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>14/09/2011</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3330</t>
+          <t>3330</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3751</t>
+          <t>3751</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -592,7 +656,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>26/05/2015</t>
@@ -600,7 +663,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3801</t>
+          <t>3801</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -640,7 +703,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>29/05/2015</t>
@@ -648,7 +710,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3802</t>
+          <t>3802</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -700,7 +762,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3803</t>
+          <t>3803</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -740,7 +802,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>11/07/2015</t>
@@ -748,7 +809,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3814</t>
+          <t>3814</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -800,7 +861,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3819</t>
+          <t>3819</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -840,7 +901,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>19/07/2015</t>
@@ -848,7 +908,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3820</t>
+          <t>3820</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -888,7 +948,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>22/07/2015</t>
@@ -896,7 +955,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3821</t>
+          <t>3821</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -948,7 +1007,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3822</t>
+          <t>3822</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -988,7 +1047,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>01/10/2015</t>
@@ -996,7 +1054,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3836</t>
+          <t>3836</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1048,7 +1106,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3837</t>
+          <t>3837</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1088,7 +1146,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>11/11/2015</t>
@@ -1096,7 +1153,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3858</t>
+          <t>3858</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1148,7 +1205,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3859</t>
+          <t>3859</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1200,7 +1257,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3863</t>
+          <t>3863</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1252,7 +1309,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3926</t>
+          <t>3926</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1304,7 +1361,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3928</t>
+          <t>3928</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1344,7 +1401,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>18/07/2018</t>
@@ -1352,7 +1408,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4176</t>
+          <t>4176</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1392,7 +1448,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>20/07/2018</t>
@@ -1400,7 +1455,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4177</t>
+          <t>4177</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1440,7 +1495,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>22/03/2019</t>
@@ -1448,7 +1502,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4273</t>
+          <t>4273</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1500,7 +1554,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4274</t>
+          <t>4274</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1552,7 +1606,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4275</t>
+          <t>4275</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1604,7 +1658,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4276</t>
+          <t>4276</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1656,7 +1710,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4277</t>
+          <t>4277</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1696,7 +1750,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>11/05/2019</t>
@@ -1704,7 +1757,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4292</t>
+          <t>4292</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1743,7 +1796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1765,7 +1818,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1802,7 +1855,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3330</t>
+          <t>3330</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1839,7 +1892,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3751</t>
+          <t>3751</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1876,7 +1929,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3801</t>
+          <t>3801</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1913,7 +1966,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3802</t>
+          <t>3802</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1950,7 +2003,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3814</t>
+          <t>3814</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1987,7 +2040,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3819</t>
+          <t>3819</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2024,7 +2077,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3820</t>
+          <t>3820</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2061,7 +2114,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3821</t>
+          <t>3821</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2098,7 +2151,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3822</t>
+          <t>3822</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2135,7 +2188,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3836</t>
+          <t>3836</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2172,7 +2225,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3837</t>
+          <t>3837</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2209,7 +2262,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3858</t>
+          <t>3858</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2246,7 +2299,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3859</t>
+          <t>3859</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2283,7 +2336,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3863</t>
+          <t>3863</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2320,7 +2373,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3926</t>
+          <t>3926</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2357,7 +2410,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3928</t>
+          <t>3928</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2394,7 +2447,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4176</t>
+          <t>4176</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2431,7 +2484,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4177</t>
+          <t>4177</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2468,7 +2521,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4273</t>
+          <t>4273</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2505,7 +2558,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4274</t>
+          <t>4274</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2542,7 +2595,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4275</t>
+          <t>4275</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2579,7 +2632,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4276</t>
+          <t>4276</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2616,7 +2669,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4277</t>
+          <t>4277</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2653,7 +2706,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4292</t>
+          <t>4292</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2681,6 +2734,477 @@
           <t>1/60</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3814</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3819</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3820</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3821</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3822</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3836</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3837</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3858</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3859</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>8.51%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3863</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1.85%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3926</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3928</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>9.45%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4176</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4177</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4273</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4274</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.35%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4275</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>5.38%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4276</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4277</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3.58%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4292</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_3898.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_3898.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2792,15 +2793,415 @@
           <t>3814</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3819</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3820</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3821</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3822</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3836</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3837</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3858</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3859</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>8.51%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3863</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1.85%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3926</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3928</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>9.45%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4176</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4177</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4273</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4274</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.35%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4275</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>5.38%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4276</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4277</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3.58%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4292</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3814</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2810,13 +3211,6 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2826,13 +3220,6 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2840,15 +3227,14 @@
           <t>3821</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>9</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -2860,13 +3246,6 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2874,15 +3253,14 @@
           <t>3836</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>10</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -2894,13 +3272,6 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2910,13 +3281,6 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2924,29 +3288,12 @@
           <t>3859</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>10</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>8.51%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2954,27 +3301,14 @@
           <t>3863</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>10</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1.85%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -2984,25 +3318,12 @@
           <t>3926</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3010,29 +3331,12 @@
           <t>3928</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>10</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>9.45%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3040,17 +3344,8 @@
           <t>4176</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>9</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3058,17 +3353,12 @@
           <t>4177</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>9</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3076,17 +3366,12 @@
           <t>4273</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>10</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3094,27 +3379,14 @@
           <t>4274</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>9</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0.35%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3124,27 +3396,14 @@
           <t>4275</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>8</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>5.38%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3156,13 +3415,6 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3170,29 +3422,12 @@
           <t>4277</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>8</v>
-      </c>
-      <c r="C20" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>3.58%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3200,11 +3435,16 @@
           <t>4292</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_3898.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_3898.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2793,6 +2792,10 @@
           <t>3814</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2805,6 +2808,10 @@
           <t>3819</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2817,6 +2824,10 @@
           <t>3820</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2832,6 +2843,9 @@
       <c r="B5" t="n">
         <v>9</v>
       </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2844,6 +2858,10 @@
           <t>3822</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2859,6 +2877,9 @@
       <c r="B7" t="n">
         <v>10</v>
       </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>YES</t>
@@ -2871,6 +2892,10 @@
           <t>3837</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2883,6 +2908,10 @@
           <t>3858</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2968,6 +2997,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3013,6 +3043,9 @@
       <c r="B14" t="n">
         <v>9</v>
       </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3028,6 +3061,9 @@
       <c r="B15" t="n">
         <v>9</v>
       </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3043,6 +3079,9 @@
       <c r="B16" t="n">
         <v>10</v>
       </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3115,6 +3154,10 @@
           <t>4276</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3157,294 +3200,11 @@
           <t>4292</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3814</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3819</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3820</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3821</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3822</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3836</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>60.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3837</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3858</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3859</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3863</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>3926</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>3928</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4176</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4177</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4273</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4274</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4275</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4276</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4277</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4292</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_3898.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_3898.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -557,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>14/09/2011</t>
@@ -656,6 +656,7 @@
           <t>3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>26/05/2015</t>
@@ -703,6 +704,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>29/05/2015</t>
@@ -802,6 +804,7 @@
           <t>6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>11/07/2015</t>
@@ -901,6 +904,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>19/07/2015</t>
@@ -948,6 +952,7 @@
           <t>9</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>22/07/2015</t>
@@ -1047,6 +1052,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>01/10/2015</t>
@@ -1146,6 +1152,7 @@
           <t>13</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>11/11/2015</t>
@@ -1401,6 +1408,7 @@
           <t>18</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>18/07/2018</t>
@@ -1448,6 +1456,7 @@
           <t>19</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>20/07/2018</t>
@@ -1495,6 +1504,7 @@
           <t>20</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>22/03/2019</t>
@@ -1750,6 +1760,7 @@
           <t>25</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>11/05/2019</t>
@@ -2738,475 +2749,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3814</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3819</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3820</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3821</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>9</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3822</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3836</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>10</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3837</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3858</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3859</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>10</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>8.51%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3863</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1.85%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>3926</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>3928</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>10</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>9.45%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4176</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>9</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4177</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>9</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4273</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>10</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4274</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>9</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0.35%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4275</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>8</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>5.38%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4276</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4277</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>8</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>3.58%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4292</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>